--- a/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S03.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/dbIdcImport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0619A35-B4BE-8542-A124-42DC08F1AD03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC906A3-6F7B-C545-8497-B6A455847B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="-21600" windowWidth="25400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="25460" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="166">
   <si>
     <t>\\BERGAMO-SV101</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>01 Raw Material Silos</t>
-  </si>
-  <si>
     <t>Value 026</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>033: Silo Nr Outtake Special</t>
   </si>
   <si>
-    <t>03_Special_Malt_ SIlos</t>
-  </si>
-  <si>
     <t>Value 034</t>
   </si>
   <si>
@@ -578,18 +572,6 @@
     <t>Int</t>
   </si>
   <si>
-    <t>Value 007</t>
-  </si>
-  <si>
-    <t>007: Special Malt Amaunt Outtake 1</t>
-  </si>
-  <si>
-    <t>Value 008</t>
-  </si>
-  <si>
-    <t>008: Colorato Malt Amaunt Outtake 2</t>
-  </si>
-  <si>
     <t>hl</t>
   </si>
   <si>
@@ -647,9 +629,6 @@
     <t>Raw Material</t>
   </si>
   <si>
-    <t>01 Raw Material type</t>
-  </si>
-  <si>
     <t>LiTSupplFunctions</t>
   </si>
   <si>
@@ -807,13 +786,34 @@
   </si>
   <si>
     <t>082: Stanby Silo Nr Outtake 4</t>
+  </si>
+  <si>
+    <t>Maltsilos</t>
+  </si>
+  <si>
+    <t>Malttype</t>
+  </si>
+  <si>
+    <t>027: Special Malt Amaunt Outtake 1</t>
+  </si>
+  <si>
+    <t>028: Colorato Malt Amaunt Outtake 2</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>вто</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +837,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -895,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -904,6 +910,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1197,10 +1204,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1209,12 +1216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1348,10 +1355,10 @@
         <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
@@ -1369,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>9</v>
@@ -1404,13 +1411,13 @@
         <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>31</v>
@@ -1428,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>9</v>
@@ -1463,13 +1470,13 @@
         <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>31</v>
@@ -1487,7 +1494,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>9</v>
@@ -1522,13 +1529,13 @@
         <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>31</v>
@@ -1546,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>9</v>
@@ -1581,13 +1588,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
@@ -1605,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
@@ -1640,13 +1647,13 @@
         <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>31</v>
@@ -1664,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>9</v>
@@ -1699,13 +1706,13 @@
         <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>31</v>
@@ -1723,7 +1730,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>9</v>
@@ -1758,13 +1765,13 @@
         <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>31</v>
@@ -1782,7 +1789,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
@@ -1817,10 +1824,10 @@
         <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F11" s="3">
         <v>33</v>
@@ -1841,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>9</v>
@@ -1876,10 +1883,10 @@
         <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
         <v>34</v>
@@ -1894,13 +1901,13 @@
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>9</v>
@@ -1935,10 +1942,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3">
         <v>35</v>
@@ -1959,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>9</v>
@@ -1994,10 +2001,10 @@
         <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3">
         <v>37</v>
@@ -2012,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>19</v>
@@ -2050,10 +2057,10 @@
         <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3">
         <v>38</v>
@@ -2068,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>19</v>
@@ -2106,10 +2113,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3">
         <v>39</v>
@@ -2124,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>19</v>
@@ -2162,10 +2169,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="3">
         <v>40</v>
@@ -2180,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>19</v>
@@ -2218,10 +2225,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3">
         <v>58</v>
@@ -2236,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>19</v>
@@ -2274,10 +2281,10 @@
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="3">
         <v>59</v>
@@ -2292,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>19</v>
@@ -2330,10 +2337,10 @@
         <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3">
         <v>60</v>
@@ -2348,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>19</v>
@@ -2386,10 +2393,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3">
         <v>61</v>
@@ -2404,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>19</v>
@@ -2442,10 +2449,10 @@
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3">
         <v>62</v>
@@ -2460,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>19</v>
@@ -2498,10 +2505,10 @@
         <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3">
         <v>63</v>
@@ -2516,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>19</v>
@@ -2554,13 +2561,13 @@
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7</v>
+        <v>161</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>31</v>
@@ -2610,13 +2617,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="3">
-        <v>8</v>
+        <v>162</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>31</v>
@@ -2666,28 +2673,28 @@
         <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>9</v>
@@ -2722,10 +2729,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3">
         <v>42</v>
@@ -2740,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>14</v>
@@ -2778,10 +2785,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F28" s="3">
         <v>43</v>
@@ -2796,7 +2803,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>14</v>
@@ -2834,10 +2841,10 @@
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F29" s="3">
         <v>44</v>
@@ -2852,7 +2859,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>14</v>
@@ -2890,10 +2897,10 @@
         <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F30" s="3">
         <v>45</v>
@@ -2908,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>14</v>
@@ -2946,10 +2953,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F31" s="3">
         <v>46</v>
@@ -2964,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>14</v>
@@ -3002,10 +3009,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F32" s="3">
         <v>47</v>
@@ -3020,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>14</v>
@@ -3058,10 +3065,10 @@
         <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3">
         <v>48</v>
@@ -3076,7 +3083,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>14</v>
@@ -3114,10 +3121,10 @@
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3">
         <v>49</v>
@@ -3132,7 +3139,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>14</v>
@@ -3167,16 +3174,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>29</v>
@@ -3194,7 +3201,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>9</v>
@@ -3226,16 +3233,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>29</v>
@@ -3253,7 +3260,7 @@
         <v>19</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>9</v>
@@ -3285,7 +3292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,10 +3329,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -3367,10 +3374,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -3382,52 +3389,52 @@
         <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -3438,16 +3445,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
@@ -3477,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>9</v>
@@ -3489,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>9</v>
@@ -3509,16 +3516,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -3538,6 +3545,9 @@
       <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3545,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>16</v>
@@ -3557,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>9</v>
